--- a/arquivos_postos/output/07783800000175.xlsx
+++ b/arquivos_postos/output/07783800000175.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>Afericao</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -483,6 +488,11 @@
           <t xml:space="preserve">  167,810</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -508,6 +518,11 @@
           <t xml:space="preserve">   40,000</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -533,6 +548,11 @@
           <t xml:space="preserve">   40,000</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -558,6 +578,11 @@
           <t xml:space="preserve">   41,000</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -583,6 +608,11 @@
           <t xml:space="preserve">   41,000</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -608,6 +638,11 @@
           <t xml:space="preserve">   40,000</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -633,6 +668,11 @@
           <t xml:space="preserve">   40,000</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -658,6 +698,11 @@
           <t xml:space="preserve">   40,000</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -683,6 +728,11 @@
           <t xml:space="preserve">   40,000</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -708,6 +758,11 @@
           <t xml:space="preserve">   68,680</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -733,6 +788,11 @@
           <t xml:space="preserve">  140,640</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -756,6 +816,11 @@
       <c r="G13" t="inlineStr">
         <is>
           <t xml:space="preserve">   41,000</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
         </is>
       </c>
     </row>
@@ -770,7 +835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -804,6 +869,11 @@
           <t>Recebimento</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -825,6 +895,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -846,6 +921,11 @@
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -867,6 +947,11 @@
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -888,6 +973,11 @@
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -909,6 +999,11 @@
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -930,6 +1025,11 @@
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -951,6 +1051,11 @@
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -972,6 +1077,11 @@
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
